--- a/data/input_operation/OperationScenario_Component_Battery.xlsx
+++ b/data/input_operation/OperationScenario_Component_Battery.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="14660"/>
+    <workbookView windowWidth="27860" windowHeight="14260"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Battery" sheetId="1" r:id="rId1"/>
@@ -54,12 +54,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -70,6 +70,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -81,6 +87,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -88,23 +110,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,14 +165,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,8 +186,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,68 +217,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,13 +232,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -244,7 +352,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,19 +376,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,7 +394,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,126 +406,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -422,24 +428,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="8" tint="0.399975585192419"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="8" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -468,22 +461,50 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,170 +524,167 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1007,7 +1025,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
@@ -1085,26 +1103,26 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>0</v>
+      <c r="B3" s="1">
+        <v>1e-6</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="I3" t="s">
         <v>10</v>

--- a/data/input_operation/OperationScenario_Component_Battery.xlsx
+++ b/data/input_operation/OperationScenario_Component_Battery.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mascherbauer\PycharmProjects\NewTrends\Prosumager\data\input_operation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1ED946A5-C157-4AA2-BA45-BB34AF45AC0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E325CFB-2D1A-4ABE-8A80-0889783D87D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Component_Bat" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>ID_Battery</t>
   </si>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -892,10 +892,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -933,7 +935,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -954,35 +956,6 @@
         <v>4500</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>0.95</v>
-      </c>
-      <c r="E3">
-        <v>4500</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>0.95</v>
-      </c>
-      <c r="H3">
-        <v>4500</v>
-      </c>
-      <c r="I3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/data/input_operation/OperationScenario_Component_Battery.xlsx
+++ b/data/input_operation/OperationScenario_Component_Battery.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mascherbauer\PycharmProjects\NewTrends\Prosumager\data\input_operation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1ED946A5-C157-4AA2-BA45-BB34AF45AC0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BD1574-7013-46F8-BE4A-BE39A7F37200}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Component_Bat" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -892,10 +892,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -933,7 +935,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>

--- a/data/input_operation/OperationScenario_Component_Battery.xlsx
+++ b/data/input_operation/OperationScenario_Component_Battery.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mascherbauer\PycharmProjects\NewTrends\Prosumager\data\input_operation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/Flex/data/input_operation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BD1574-7013-46F8-BE4A-BE39A7F37200}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950C2CA7-89E6-CB49-9623-B31DA86FDABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="19200" windowHeight="6360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Component_Bat" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>ID_Battery</t>
   </si>
@@ -540,48 +540,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -597,7 +597,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -893,15 +893,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -930,7 +930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -956,35 +956,6 @@
         <v>4500</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>0.95</v>
-      </c>
-      <c r="E3">
-        <v>4500</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>0.95</v>
-      </c>
-      <c r="H3">
-        <v>4500</v>
-      </c>
-      <c r="I3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/data/input_operation/OperationScenario_Component_Battery.xlsx
+++ b/data/input_operation/OperationScenario_Component_Battery.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/Flex/data/input_operation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mascherbauer\PycharmProjects\NewTrends\Prosumager\data\input_operation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950C2CA7-89E6-CB49-9623-B31DA86FDABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BD1574-7013-46F8-BE4A-BE39A7F37200}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="19200" windowHeight="6360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Component_Bat" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>ID_Battery</t>
   </si>
@@ -540,48 +540,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -597,7 +597,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -893,15 +893,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -930,7 +930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -956,6 +956,35 @@
         <v>4500</v>
       </c>
       <c r="I2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>0.95</v>
+      </c>
+      <c r="E3">
+        <v>4500</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>0.95</v>
+      </c>
+      <c r="H3">
+        <v>4500</v>
+      </c>
+      <c r="I3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/data/input_operation/OperationScenario_Component_Battery.xlsx
+++ b/data/input_operation/OperationScenario_Component_Battery.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mascherbauer\PycharmProjects\NewTrends\Prosumager\data\input_operation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E325CFB-2D1A-4ABE-8A80-0889783D87D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915629FF-D68D-4FCA-BE58-F419AD2F5DBE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Component_Bat" sheetId="1" r:id="rId1"/>
@@ -896,12 +896,21 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -930,7 +939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>

--- a/data/input_operation/OperationScenario_Component_Battery.xlsx
+++ b/data/input_operation/OperationScenario_Component_Battery.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mascherbauer\PycharmProjects\NewTrends\Prosumager\data\input_operation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Desktop/input_operation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BD1574-7013-46F8-BE4A-BE39A7F37200}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3A0C91-4C6A-DD47-87E2-86ED82EEEFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="19200" windowHeight="6360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Component_Bat" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>ID_Battery</t>
   </si>
@@ -540,48 +540,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -597,7 +597,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -893,15 +893,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -930,7 +930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -956,35 +956,6 @@
         <v>4500</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>0.95</v>
-      </c>
-      <c r="E3">
-        <v>4500</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>0.95</v>
-      </c>
-      <c r="H3">
-        <v>4500</v>
-      </c>
-      <c r="I3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/data/input_operation/OperationScenario_Component_Battery.xlsx
+++ b/data/input_operation/OperationScenario_Component_Battery.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Desktop/input_operation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mascherbauer\PycharmProjects\NewTrends\Prosumager\data\input_operation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3A0C91-4C6A-DD47-87E2-86ED82EEEFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BD1574-7013-46F8-BE4A-BE39A7F37200}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="19200" windowHeight="6360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Component_Bat" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>ID_Battery</t>
   </si>
@@ -540,48 +540,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -597,7 +597,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -893,15 +893,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -930,7 +930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -956,6 +956,35 @@
         <v>4500</v>
       </c>
       <c r="I2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>0.95</v>
+      </c>
+      <c r="E3">
+        <v>4500</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>0.95</v>
+      </c>
+      <c r="H3">
+        <v>4500</v>
+      </c>
+      <c r="I3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/data/input_operation/OperationScenario_Component_Battery.xlsx
+++ b/data/input_operation/OperationScenario_Component_Battery.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mascherbauer\PycharmProjects\NewTrends\Prosumager\data\input_operation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/FLEX/data/input_operation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BD1574-7013-46F8-BE4A-BE39A7F37200}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6CA372-DA92-BF42-9120-69C40195ADEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4100" yWindow="-17200" windowWidth="23480" windowHeight="11720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Component_Bat" sheetId="1" r:id="rId1"/>
@@ -540,48 +540,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -597,7 +597,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -896,12 +896,19 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F12" sqref="F12:F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -930,7 +937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -959,7 +966,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>

--- a/data/input_operation/OperationScenario_Component_Battery.xlsx
+++ b/data/input_operation/OperationScenario_Component_Battery.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mascherbauer\PycharmProjects\NewTrends\Prosumager\data\input_operation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/FLEX/data/input_operation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BD1574-7013-46F8-BE4A-BE39A7F37200}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE812E33-CE0A-F944-ABC8-F5A9B211E429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2880" yWindow="-20720" windowWidth="23580" windowHeight="19760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Component_Bat" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
   <si>
     <t>ID_Battery</t>
   </si>
@@ -540,48 +540,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -597,7 +597,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -893,15 +893,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="182" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -930,12 +930,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -959,12 +959,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -985,6 +985,93 @@
         <v>4500</v>
       </c>
       <c r="I3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>10000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>0.95</v>
+      </c>
+      <c r="E4">
+        <v>4500</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>0.95</v>
+      </c>
+      <c r="H4">
+        <v>4500</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>5000</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>0.95</v>
+      </c>
+      <c r="E5">
+        <v>4500</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>0.95</v>
+      </c>
+      <c r="H5">
+        <v>4500</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>0.95</v>
+      </c>
+      <c r="E6">
+        <v>4500</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>0.95</v>
+      </c>
+      <c r="H6">
+        <v>4500</v>
+      </c>
+      <c r="I6" t="s">
         <v>10</v>
       </c>
     </row>

--- a/data/input_operation/OperationScenario_Component_Battery.xlsx
+++ b/data/input_operation/OperationScenario_Component_Battery.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/FLEX/data/input_operation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE812E33-CE0A-F944-ABC8-F5A9B211E429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7415E12C-6BD8-C14F-9921-727BF0664806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2880" yWindow="-20720" windowWidth="23580" windowHeight="19760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Component_Bat" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>ID_Battery</t>
   </si>
@@ -893,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="182" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -964,7 +964,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -993,7 +993,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -1014,64 +1014,6 @@
         <v>4500</v>
       </c>
       <c r="I4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>5000</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>0.95</v>
-      </c>
-      <c r="E5">
-        <v>4500</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <v>0.95</v>
-      </c>
-      <c r="H5">
-        <v>4500</v>
-      </c>
-      <c r="I5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6">
-        <v>0.95</v>
-      </c>
-      <c r="E6">
-        <v>4500</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6">
-        <v>0.95</v>
-      </c>
-      <c r="H6">
-        <v>4500</v>
-      </c>
-      <c r="I6" t="s">
         <v>10</v>
       </c>
     </row>
